--- a/data/trans_orig/P41D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Provincia-trans_orig.xlsx
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4368</v>
+        <v>4346</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2373985697601219</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8215746235300017</v>
+        <v>0.8174183121868106</v>
       </c>
     </row>
     <row r="20">
@@ -1711,16 +1711,16 @@
         <v>4055</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>923</v>
+        <v>973</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>5317</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7626014302398779</v>
+        <v>0.762601430239878</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1735536274136033</v>
+        <v>0.1829089434658371</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>3120</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5663478186239407</v>
+        <v>0.5663478186239408</v>
       </c>
       <c r="O22" s="6" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4134</v>
+        <v>4163</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3246881929369979</v>
+        <v>0.324688192936998</v>
       </c>
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7597266076495007</v>
+        <v>0.7651491155501726</v>
       </c>
     </row>
     <row r="23">
@@ -1897,7 +1897,7 @@
         <v>3120</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.4336521813760592</v>
+        <v>0.4336521813760593</v>
       </c>
       <c r="O23" s="6" t="n">
         <v>0</v>
@@ -2019,16 +2019,16 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6305</v>
+        <v>6131</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.08907864004972729</v>
+        <v>0.08907864004972728</v>
       </c>
       <c r="H25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4449293567574725</v>
+        <v>0.4326676233035622</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2037,19 +2037,19 @@
         <v>3631</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1137</v>
+        <v>804</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7167</v>
+        <v>6864</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3056370857670518</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0956913238435765</v>
+        <v>0.06771678849977691</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6032664253426726</v>
+        <v>0.5777709102159907</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -2058,19 +2058,19 @@
         <v>4893</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1521</v>
+        <v>1614</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>9908</v>
+        <v>10089</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1878380836554621</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05840139744656048</v>
+        <v>0.06196749173355762</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3803628276665241</v>
+        <v>0.3872939146200574</v>
       </c>
     </row>
     <row r="26">
@@ -2087,7 +2087,7 @@
         <v>12908</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7865</v>
+        <v>8039</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>14170</v>
@@ -2096,7 +2096,7 @@
         <v>0.9109213599502727</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5550706432425395</v>
+        <v>0.5673323766964378</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -2108,19 +2108,19 @@
         <v>8249</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4713</v>
+        <v>5016</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10743</v>
+        <v>11076</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6943629142329483</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3967335746573267</v>
+        <v>0.4222290897840092</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9043086761564232</v>
+        <v>0.9322832115002229</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -2129,19 +2129,19 @@
         <v>21157</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>16142</v>
+        <v>15961</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>24529</v>
+        <v>24436</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.812161916344538</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6196371723334757</v>
+        <v>0.6127060853799424</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9415986025534391</v>
+        <v>0.9380325082664424</v>
       </c>
     </row>
     <row r="27">
